--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5187273333333332</v>
+        <v>0.1054003333333333</v>
       </c>
       <c r="H2">
-        <v>1.556182</v>
+        <v>0.316201</v>
       </c>
       <c r="I2">
-        <v>0.01248695061656416</v>
+        <v>0.002842499753259756</v>
       </c>
       <c r="J2">
-        <v>0.01248695061656416</v>
+        <v>0.002842499753259756</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N2">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q2">
-        <v>4.553155969245554</v>
+        <v>1.140608081958111</v>
       </c>
       <c r="R2">
-        <v>40.97840372320999</v>
+        <v>10.265472737623</v>
       </c>
       <c r="S2">
-        <v>0.0009308794514192719</v>
+        <v>0.0002596209587570511</v>
       </c>
       <c r="T2">
-        <v>0.0009308794514192721</v>
+        <v>0.0002596209587570511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5187273333333332</v>
+        <v>0.1054003333333333</v>
       </c>
       <c r="H3">
-        <v>1.556182</v>
+        <v>0.316201</v>
       </c>
       <c r="I3">
-        <v>0.01248695061656416</v>
+        <v>0.002842499753259756</v>
       </c>
       <c r="J3">
-        <v>0.01248695061656416</v>
+        <v>0.002842499753259756</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N3">
         <v>108.424221</v>
       </c>
       <c r="O3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q3">
-        <v>18.74753567602466</v>
+        <v>3.809316344935668</v>
       </c>
       <c r="R3">
-        <v>168.727821084222</v>
+        <v>34.28384710442101</v>
       </c>
       <c r="S3">
-        <v>0.003832878962073589</v>
+        <v>0.0008670623830608838</v>
       </c>
       <c r="T3">
-        <v>0.00383287896207359</v>
+        <v>0.0008670623830608838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5187273333333332</v>
+        <v>0.1054003333333333</v>
       </c>
       <c r="H4">
-        <v>1.556182</v>
+        <v>0.316201</v>
       </c>
       <c r="I4">
-        <v>0.01248695061656416</v>
+        <v>0.002842499753259756</v>
       </c>
       <c r="J4">
-        <v>0.01248695061656416</v>
+        <v>0.002842499753259756</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N4">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q4">
-        <v>9.463626541692886</v>
+        <v>2.782682070224888</v>
       </c>
       <c r="R4">
-        <v>85.17263887523598</v>
+        <v>25.044138632024</v>
       </c>
       <c r="S4">
-        <v>0.001934810830789011</v>
+        <v>0.0006333837173480357</v>
       </c>
       <c r="T4">
-        <v>0.001934810830789012</v>
+        <v>0.0006333837173480358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5187273333333332</v>
+        <v>0.1054003333333333</v>
       </c>
       <c r="H5">
-        <v>1.556182</v>
+        <v>0.316201</v>
       </c>
       <c r="I5">
-        <v>0.01248695061656416</v>
+        <v>0.002842499753259756</v>
       </c>
       <c r="J5">
-        <v>0.01248695061656416</v>
+        <v>0.002842499753259756</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N5">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q5">
-        <v>28.31236972445133</v>
+        <v>4.755515444399888</v>
       </c>
       <c r="R5">
-        <v>254.811327520062</v>
+        <v>42.799638999599</v>
       </c>
       <c r="S5">
-        <v>0.005788381372282284</v>
+        <v>0.001082432694093785</v>
       </c>
       <c r="T5">
-        <v>0.005788381372282285</v>
+        <v>0.001082432694093785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>58.855698</v>
       </c>
       <c r="I6">
-        <v>0.4722636519567852</v>
+        <v>0.5290853192840337</v>
       </c>
       <c r="J6">
-        <v>0.4722636519567853</v>
+        <v>0.5290853192840336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N6">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q6">
-        <v>172.20297669091</v>
+        <v>212.305732139006</v>
       </c>
       <c r="R6">
-        <v>1549.82679021819</v>
+        <v>1910.751589251054</v>
       </c>
       <c r="S6">
-        <v>0.03520639608165263</v>
+        <v>0.04832423914875494</v>
       </c>
       <c r="T6">
-        <v>0.03520639608165264</v>
+        <v>0.04832423914875493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>58.855698</v>
       </c>
       <c r="I7">
-        <v>0.4722636519567852</v>
+        <v>0.5290853192840337</v>
       </c>
       <c r="J7">
-        <v>0.4722636519567853</v>
+        <v>0.5290853192840336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N7">
         <v>108.424221</v>
       </c>
       <c r="O7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q7">
-        <v>709.0425785623621</v>
+        <v>709.0425785623622</v>
       </c>
       <c r="R7">
-        <v>6381.383207061259</v>
+        <v>6381.38320706126</v>
       </c>
       <c r="S7">
-        <v>0.1449616861410533</v>
+        <v>0.1613896280043128</v>
       </c>
       <c r="T7">
-        <v>0.1449616861410534</v>
+        <v>0.1613896280043127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>58.855698</v>
       </c>
       <c r="I8">
-        <v>0.4722636519567852</v>
+        <v>0.5290853192840337</v>
       </c>
       <c r="J8">
-        <v>0.4722636519567853</v>
+        <v>0.5290853192840336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N8">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q8">
-        <v>357.919797120556</v>
+        <v>517.9512258189279</v>
       </c>
       <c r="R8">
-        <v>3221.278174085004</v>
+        <v>4661.561032370352</v>
       </c>
       <c r="S8">
-        <v>0.0731756580811545</v>
+        <v>0.1178941267938854</v>
       </c>
       <c r="T8">
-        <v>0.0731756580811545</v>
+        <v>0.1178941267938854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>58.855698</v>
       </c>
       <c r="I9">
-        <v>0.4722636519567852</v>
+        <v>0.5290853192840337</v>
       </c>
       <c r="J9">
-        <v>0.4722636519567853</v>
+        <v>0.5290853192840336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N9">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q9">
-        <v>1070.790101779002</v>
+        <v>885.1622253880779</v>
       </c>
       <c r="R9">
-        <v>9637.110916011019</v>
+        <v>7966.460028492702</v>
       </c>
       <c r="S9">
-        <v>0.2189199116529248</v>
+        <v>0.2014773253370806</v>
       </c>
       <c r="T9">
-        <v>0.2189199116529248</v>
+        <v>0.2014773253370805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.119724666666667</v>
+        <v>1.502894666666666</v>
       </c>
       <c r="H10">
-        <v>6.359174</v>
+        <v>4.508684</v>
       </c>
       <c r="I10">
-        <v>0.05102660980536902</v>
+        <v>0.04053096972345505</v>
       </c>
       <c r="J10">
-        <v>0.05102660980536902</v>
+        <v>0.04053096972345505</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N10">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q10">
-        <v>18.60599278077445</v>
+        <v>16.26383663997022</v>
       </c>
       <c r="R10">
-        <v>167.45393502697</v>
+        <v>146.374529759732</v>
       </c>
       <c r="S10">
-        <v>0.003803940930173783</v>
+        <v>0.003701913854834666</v>
       </c>
       <c r="T10">
-        <v>0.003803940930173783</v>
+        <v>0.003701913854834666</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.119724666666667</v>
+        <v>1.502894666666666</v>
       </c>
       <c r="H11">
-        <v>6.359174</v>
+        <v>4.508684</v>
       </c>
       <c r="I11">
-        <v>0.05102660980536902</v>
+        <v>0.04053096972345505</v>
       </c>
       <c r="J11">
-        <v>0.05102660980536902</v>
+        <v>0.04053096972345505</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N11">
         <v>108.424221</v>
       </c>
       <c r="O11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q11">
-        <v>76.60983190593934</v>
+        <v>54.31672782612934</v>
       </c>
       <c r="R11">
-        <v>689.488487153454</v>
+        <v>488.8505504351641</v>
       </c>
       <c r="S11">
-        <v>0.01566265657922104</v>
+        <v>0.01236337106305318</v>
       </c>
       <c r="T11">
-        <v>0.01566265657922104</v>
+        <v>0.01236337106305318</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.119724666666667</v>
+        <v>1.502894666666666</v>
       </c>
       <c r="H12">
-        <v>6.359174</v>
+        <v>4.508684</v>
       </c>
       <c r="I12">
-        <v>0.05102660980536902</v>
+        <v>0.04053096972345505</v>
       </c>
       <c r="J12">
-        <v>0.05102660980536902</v>
+        <v>0.04053096972345505</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N12">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q12">
-        <v>38.67211409053911</v>
+        <v>39.67803431080177</v>
       </c>
       <c r="R12">
-        <v>348.049026814852</v>
+        <v>357.1023087972159</v>
       </c>
       <c r="S12">
-        <v>0.007906400877321472</v>
+        <v>0.009031366226759596</v>
       </c>
       <c r="T12">
-        <v>0.007906400877321472</v>
+        <v>0.009031366226759598</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.119724666666667</v>
+        <v>1.502894666666666</v>
       </c>
       <c r="H13">
-        <v>6.359174</v>
+        <v>4.508684</v>
       </c>
       <c r="I13">
-        <v>0.05102660980536902</v>
+        <v>0.04053096972345505</v>
       </c>
       <c r="J13">
-        <v>0.05102660980536902</v>
+        <v>0.04053096972345505</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N13">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O13">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P13">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q13">
-        <v>115.6955198235927</v>
+        <v>67.80850280650176</v>
       </c>
       <c r="R13">
-        <v>1041.259678412334</v>
+        <v>610.2765252585159</v>
       </c>
       <c r="S13">
-        <v>0.02365361141865273</v>
+        <v>0.0154343185788076</v>
       </c>
       <c r="T13">
-        <v>0.02365361141865273</v>
+        <v>0.01543431857880761</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.284536</v>
+        <v>15.85329466666666</v>
       </c>
       <c r="H14">
-        <v>57.853608</v>
+        <v>47.559884</v>
       </c>
       <c r="I14">
-        <v>0.4642227876212815</v>
+        <v>0.4275412112392517</v>
       </c>
       <c r="J14">
-        <v>0.4642227876212816</v>
+        <v>0.4275412112392516</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N14">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O14">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P14">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q14">
-        <v>169.2710111076933</v>
+        <v>171.5591919930369</v>
       </c>
       <c r="R14">
-        <v>1523.43909996924</v>
+        <v>1544.032727937332</v>
       </c>
       <c r="S14">
-        <v>0.03460696427388674</v>
+        <v>0.03904966360781319</v>
       </c>
       <c r="T14">
-        <v>0.03460696427388674</v>
+        <v>0.03904966360781318</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.284536</v>
+        <v>15.85329466666666</v>
       </c>
       <c r="H15">
-        <v>57.853608</v>
+        <v>47.559884</v>
       </c>
       <c r="I15">
-        <v>0.4642227876212815</v>
+        <v>0.4275412112392517</v>
       </c>
       <c r="J15">
-        <v>0.4642227876212816</v>
+        <v>0.4275412112392516</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N15">
         <v>108.424221</v>
       </c>
       <c r="O15">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P15">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q15">
-        <v>696.970264382152</v>
+        <v>572.9603748389294</v>
       </c>
       <c r="R15">
-        <v>6272.732379439369</v>
+        <v>5156.643373550364</v>
       </c>
       <c r="S15">
-        <v>0.1424935367349399</v>
+        <v>0.130415104187334</v>
       </c>
       <c r="T15">
-        <v>0.14249353673494</v>
+        <v>0.130415104187334</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.284536</v>
+        <v>15.85329466666666</v>
       </c>
       <c r="H16">
-        <v>57.853608</v>
+        <v>47.559884</v>
       </c>
       <c r="I16">
-        <v>0.4642227876212815</v>
+        <v>0.4275412112392517</v>
       </c>
       <c r="J16">
-        <v>0.4642227876212816</v>
+        <v>0.4275412112392516</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N16">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O16">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P16">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q16">
-        <v>351.8257762919093</v>
+        <v>418.544016207335</v>
       </c>
       <c r="R16">
-        <v>3166.431986627184</v>
+        <v>3766.896145866016</v>
       </c>
       <c r="S16">
-        <v>0.07192975330560424</v>
+        <v>0.09526742839067988</v>
       </c>
       <c r="T16">
-        <v>0.07192975330560425</v>
+        <v>0.09526742839067988</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.284536</v>
+        <v>15.85329466666666</v>
       </c>
       <c r="H17">
-        <v>57.853608</v>
+        <v>47.559884</v>
       </c>
       <c r="I17">
-        <v>0.4642227876212815</v>
+        <v>0.4275412112392517</v>
       </c>
       <c r="J17">
-        <v>0.4642227876212816</v>
+        <v>0.4275412112392516</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N17">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O17">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P17">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q17">
-        <v>1052.558595067592</v>
+        <v>715.2784554630349</v>
       </c>
       <c r="R17">
-        <v>9473.027355608328</v>
+        <v>6437.506099167315</v>
       </c>
       <c r="S17">
-        <v>0.2151925333068506</v>
+        <v>0.1628090150534246</v>
       </c>
       <c r="T17">
-        <v>0.2151925333068506</v>
+        <v>0.1628090150534246</v>
       </c>
     </row>
   </sheetData>
